--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -676,7 +676,7 @@
     <t>max (M)</t>
   </si>
   <si>
-    <t>Fluxes (umol/gdcw/h)</t>
+    <t>Fluxes (umol/gCDW/h)</t>
   </si>
   <si>
     <t>MBo10_mean</t>
@@ -1225,7 +1225,7 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1355,7 +1355,7 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="366">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -724,10 +724,10 @@
     <t>activators</t>
   </si>
   <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
+    <t>negative effectors</t>
+  </si>
+  <si>
+    <t>positive effectors</t>
   </si>
   <si>
     <t>allosteric</t>
@@ -736,40 +736,40 @@
     <t>subunits</t>
   </si>
   <si>
-    <t>mechanism_ref_type</t>
-  </si>
-  <si>
-    <t>mechanism_ref</t>
-  </si>
-  <si>
-    <t>inhibitors_ref_type</t>
-  </si>
-  <si>
-    <t>inhibitors_ref</t>
-  </si>
-  <si>
-    <t>activators_ref_type</t>
-  </si>
-  <si>
-    <t>activators_ref</t>
-  </si>
-  <si>
-    <t>negative_effectors_ref_type</t>
-  </si>
-  <si>
-    <t>negative_effectors_ref</t>
-  </si>
-  <si>
-    <t>positive_effectors_ref_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_ref</t>
-  </si>
-  <si>
-    <t>subunits_ref_type</t>
-  </si>
-  <si>
-    <t>subunits_ref</t>
+    <t>mechanism_refs_type</t>
+  </si>
+  <si>
+    <t>mechanism_refs</t>
+  </si>
+  <si>
+    <t>inhibitors_refs_type</t>
+  </si>
+  <si>
+    <t>inhibitors_refs</t>
+  </si>
+  <si>
+    <t>activators_refs_type</t>
+  </si>
+  <si>
+    <t>activators_refs</t>
+  </si>
+  <si>
+    <t>negative_effectors_refs_type</t>
+  </si>
+  <si>
+    <t>negative_effectors_refs</t>
+  </si>
+  <si>
+    <t>positive_effectors_refs_type</t>
+  </si>
+  <si>
+    <t>positive_effectors_refs</t>
+  </si>
+  <si>
+    <t>subunits_refs_type</t>
+  </si>
+  <si>
+    <t>subunits_refs</t>
   </si>
   <si>
     <t>comments</t>
@@ -790,6 +790,9 @@
     <t>10.1093/nar/gkv1049</t>
   </si>
   <si>
+    <t>diffusion setting subunits to 1</t>
+  </si>
+  <si>
     <t>orderedBiTer</t>
   </si>
   <si>
@@ -802,6 +805,9 @@
     <t>10.1146/annurev.biochem.73.011303.073626</t>
   </si>
   <si>
+    <t>assumed subunits</t>
+  </si>
+  <si>
     <t>randomBiBi</t>
   </si>
   <si>
@@ -814,6 +820,9 @@
     <t>10.1016/0003-9861(72)90354-2</t>
   </si>
   <si>
+    <t>looks like 1 subunit from metacyc</t>
+  </si>
+  <si>
     <t>uniUni</t>
   </si>
   <si>
@@ -925,6 +934,9 @@
     <t>R_GND_nad R_GND_nadp</t>
   </si>
   <si>
+    <t>assumed subunits, ecocyc says 2</t>
+  </si>
+  <si>
     <t>m_6pgc_c m_nadp_c</t>
   </si>
   <si>
@@ -967,6 +979,9 @@
     <t>m_g3p_c m_f6p_c</t>
   </si>
   <si>
+    <t>assumed subunits, ecocyc says 1</t>
+  </si>
+  <si>
     <t>m_s7p_c m_g3p_c</t>
   </si>
   <si>
@@ -979,6 +994,9 @@
     <t>10.1093/nar/gky1048 8805555</t>
   </si>
   <si>
+    <t>same as in e. coli and some other organisms in brenda</t>
+  </si>
+  <si>
     <t>uniUniActivTwoTracks</t>
   </si>
   <si>
@@ -991,6 +1009,9 @@
     <t>10.1016/S1874-6047(08)60452-7</t>
   </si>
   <si>
+    <t>assumed subunits, ecocyc says 3</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
@@ -1006,6 +1027,9 @@
     <t>https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39</t>
   </si>
   <si>
+    <t>assumed subunits, ecocyc says 4 for fbp1 and 2 for fbp2</t>
+  </si>
+  <si>
     <t>orderedBiUni</t>
   </si>
   <si>
@@ -1021,6 +1045,9 @@
     <t>10.1016/j.pep.2011.06.020</t>
   </si>
   <si>
+    <t>assumed subunits, ecocyc says 10 for fba1 and 2 for fba2</t>
+  </si>
+  <si>
     <t>10.1007/s00018-010-0473-9</t>
   </si>
   <si>
@@ -1033,6 +1060,9 @@
     <t>m_13dpg_c m_nadh_c</t>
   </si>
   <si>
+    <t>assumed subunits, ecocyc says 24</t>
+  </si>
+  <si>
     <t>m_adp_c m_13dpg_c</t>
   </si>
   <si>
@@ -1048,6 +1078,9 @@
     <t>17085493 10437801</t>
   </si>
   <si>
+    <t>assumed subunits, ecocyc says 2 for 23dpg-dependent and 1 for independent</t>
+  </si>
+  <si>
     <t>m_adp_c m_pep_c</t>
   </si>
   <si>
@@ -1066,6 +1099,9 @@
     <t>468836 468836 468836</t>
   </si>
   <si>
+    <t>assumed subunits, ecocyc says 4</t>
+  </si>
+  <si>
     <t>orderedTerUni</t>
   </si>
   <si>
@@ -1091,6 +1127,9 @@
   </si>
   <si>
     <t>massAction</t>
+  </si>
+  <si>
+    <t>massAction setting subunits to 1</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1126,6 +1165,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1188,11 +1235,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1201,7 +1248,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1226,7 +1281,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="2:50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1355,8 +1410,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2233,7 +2288,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2960,7 +3015,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3714,8 +3769,8 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3723,41 +3778,41 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>234</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -3797,7 +3852,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -3819,19 +3874,22 @@
       <c r="M2" s="0" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X2" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
@@ -3840,21 +3898,24 @@
         <v>250</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>256</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2</v>
@@ -3863,15 +3924,18 @@
         <v>250</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>25</v>
@@ -3882,19 +3946,22 @@
       <c r="K5" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X5" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>56</v>
@@ -3909,24 +3976,27 @@
         <v>250</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>5470828</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X6" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>29</v>
@@ -3934,76 +4004,85 @@
       <c r="K7" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X7" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X8" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X10" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
@@ -4012,47 +4091,53 @@
         <v>250</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="V11" s="0" t="s">
         <v>250</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X12" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>24</v>
@@ -4067,51 +4152,51 @@
         <v>250</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>6815421</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>20</v>
@@ -4129,51 +4214,51 @@
         <v>250</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>6815421</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>20</v>
@@ -4191,34 +4276,37 @@
         <v>250</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>6815421</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X15" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -4292,21 +4380,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>33</v>
@@ -4315,39 +4403,42 @@
         <v>2</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>19686854</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X17" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>33</v>
@@ -4356,33 +4447,36 @@
         <v>2</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>19686854</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X18" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>40</v>
@@ -4391,128 +4485,140 @@
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>308</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>311</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>311</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>27</v>
@@ -4527,30 +4633,33 @@
         <v>2</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>6326623</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X24" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>3</v>
@@ -4559,21 +4668,24 @@
         <v>250</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="W25" s="0" t="n">
         <v>12876349</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X25" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>24</v>
@@ -4585,44 +4697,50 @@
         <v>2</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>4</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>48</v>
@@ -4631,24 +4749,27 @@
         <v>4</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="V28" s="0" t="s">
         <v>250</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>336</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>42</v>
@@ -4663,21 +4784,24 @@
         <v>250</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>338</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>54</v>
@@ -4689,36 +4813,39 @@
         <v>4</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="W30" s="0" t="n">
         <v>8636984</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X30" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>5128739</v>
@@ -4727,15 +4854,18 @@
         <v>250</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>345</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>51</v>
@@ -4747,18 +4877,21 @@
         <v>1</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="X32" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>52</v>
@@ -4770,27 +4903,30 @@
         <v>2</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="W33" s="0" t="n">
         <v>9376357</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X33" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>4</v>
@@ -4802,30 +4938,33 @@
         <v>250</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="W34" s="0" t="n">
         <v>468836</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X34" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>56</v>
@@ -4837,27 +4976,27 @@
         <v>250</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
@@ -4866,54 +5005,54 @@
         <v>250</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="V36" s="0" t="s">
         <v>250</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>47</v>
@@ -4924,13 +5063,16 @@
       <c r="K40" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X40" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>53</v>
@@ -4941,13 +5083,16 @@
       <c r="K41" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X41" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>60</v>
@@ -4958,8 +5103,11 @@
       <c r="K42" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X42" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -5033,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -5107,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -5181,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -5255,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -5329,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
@@ -5403,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
@@ -5477,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
@@ -5577,7 +5725,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13504,7 +13652,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14415,7 +14563,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15178,7 +15326,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15455,7 +15603,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15742,7 +15890,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16029,7 +16177,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16606,7 +16754,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="2:50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="367">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>fixed?</t>
+  </si>
+  <si>
+    <t>measured?</t>
   </si>
   <si>
     <t>D-glucose extracellular</t>
@@ -1281,7 +1284,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="2:50"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1411,7 +1414,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1421,19 +1424,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,7 +2291,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2298,16 +2301,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,7 +3018,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3025,16 +3028,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,8 +3772,8 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3780,76 +3783,76 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,25 +3860,25 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,25 +3886,25 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,25 +3912,25 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,7 +3938,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>25</v>
@@ -3947,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,13 +3958,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>56</v>
@@ -3973,19 +3976,19 @@
         <v>2</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>5470828</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,10 +3996,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>29</v>
@@ -4005,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,19 +4016,19 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,16 +4036,16 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2</v>
@@ -4053,22 +4056,22 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>274</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4076,31 +4079,31 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4108,19 +4111,19 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,16 +4131,16 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>24</v>
@@ -4149,31 +4152,31 @@
         <v>2</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>6815421</v>
@@ -4184,19 +4187,19 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>20</v>
@@ -4211,31 +4214,31 @@
         <v>2</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>6815421</v>
@@ -4246,19 +4249,19 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>20</v>
@@ -4273,37 +4276,37 @@
         <v>2</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,16 +4388,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>33</v>
@@ -4403,25 +4406,25 @@
         <v>2</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4429,16 +4432,16 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>33</v>
@@ -4447,25 +4450,25 @@
         <v>2</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,10 +4476,10 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>40</v>
@@ -4485,10 +4488,10 @@
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,25 +4499,25 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,31 +4525,31 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4554,31 +4557,31 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4586,31 +4589,31 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,7 +4621,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>27</v>
@@ -4633,19 +4636,19 @@
         <v>2</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>6326623</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,31 +4656,31 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W25" s="0" t="n">
         <v>12876349</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4685,7 +4688,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>24</v>
@@ -4697,13 +4700,13 @@
         <v>2</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,25 +4714,25 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>4</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4737,10 +4740,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>48</v>
@@ -4749,19 +4752,19 @@
         <v>4</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,7 +4772,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>42</v>
@@ -4781,13 +4784,13 @@
         <v>2</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4795,13 +4798,13 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>54</v>
@@ -4813,19 +4816,19 @@
         <v>4</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W30" s="0" t="n">
         <v>8636984</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,31 +4836,31 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>5128739</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,7 +4868,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>51</v>
@@ -4877,13 +4880,13 @@
         <v>1</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4891,7 +4894,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>52</v>
@@ -4903,13 +4906,13 @@
         <v>2</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W33" s="0" t="n">
         <v>9376357</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,16 +4920,16 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>4</v>
@@ -4935,25 +4938,25 @@
         <v>4</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W34" s="0" t="n">
         <v>468836</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4961,10 +4964,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>56</v>
@@ -4973,16 +4976,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,28 +4993,28 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,7 +5022,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
@@ -5030,7 +5033,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
@@ -5041,7 +5044,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>1</v>
@@ -5052,7 +5055,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>47</v>
@@ -5064,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="X40" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +5075,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>53</v>
@@ -5084,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="X41" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,7 +5095,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>60</v>
@@ -5104,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="X42" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,7 +5728,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13649,18 +13652,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q27" activeCellId="0" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -13676,13 +13679,16 @@
       <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -13693,13 +13699,16 @@
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -13710,13 +13719,16 @@
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -13727,13 +13739,16 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -13744,13 +13759,16 @@
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -13761,13 +13779,16 @@
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -13778,13 +13799,16 @@
       <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -13795,13 +13819,16 @@
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -13812,13 +13839,16 @@
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -13829,13 +13859,16 @@
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -13846,13 +13879,16 @@
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -13863,13 +13899,16 @@
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -13880,13 +13919,16 @@
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -13897,13 +13939,16 @@
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -13914,13 +13959,16 @@
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -13931,13 +13979,16 @@
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -13948,13 +13999,16 @@
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -13965,13 +14019,16 @@
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -13982,13 +14039,16 @@
       <c r="E19" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -13999,13 +14059,16 @@
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -14016,13 +14079,16 @@
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -14033,13 +14099,16 @@
       <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -14050,13 +14119,16 @@
       <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -14067,13 +14139,16 @@
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -14084,13 +14159,16 @@
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -14101,13 +14179,16 @@
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -14118,13 +14199,16 @@
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -14135,13 +14219,16 @@
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -14152,13 +14239,16 @@
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -14169,13 +14259,16 @@
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -14186,13 +14279,16 @@
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -14203,13 +14299,16 @@
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -14220,13 +14319,16 @@
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -14237,13 +14339,16 @@
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -14254,13 +14359,16 @@
       <c r="E35" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -14271,13 +14379,16 @@
       <c r="E36" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -14288,13 +14399,16 @@
       <c r="E37" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -14305,13 +14419,16 @@
       <c r="E38" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -14322,13 +14439,16 @@
       <c r="E39" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -14339,13 +14459,16 @@
       <c r="E40" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -14356,13 +14479,16 @@
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -14373,13 +14499,16 @@
       <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -14390,13 +14519,16 @@
       <c r="E43" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -14407,8 +14539,11 @@
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -14424,8 +14559,11 @@
       <c r="E45" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -14441,8 +14579,11 @@
       <c r="E46" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -14458,8 +14599,11 @@
       <c r="E47" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -14475,8 +14619,11 @@
       <c r="E48" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -14492,8 +14639,11 @@
       <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -14509,8 +14659,11 @@
       <c r="E50" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -14526,8 +14679,11 @@
       <c r="E51" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -14541,6 +14697,9 @@
         <v>0</v>
       </c>
       <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14563,7 +14722,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14576,16 +14735,16 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14593,7 +14752,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -14607,7 +14766,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -14621,7 +14780,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -14635,7 +14794,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -14649,7 +14808,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -14663,7 +14822,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -14677,7 +14836,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -14691,7 +14850,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -14705,7 +14864,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -14719,7 +14878,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -14733,7 +14892,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -14747,7 +14906,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -14756,7 +14915,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14764,7 +14923,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -14773,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14781,7 +14940,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -14790,7 +14949,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14798,7 +14957,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -14812,7 +14971,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -14826,7 +14985,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -14840,7 +14999,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -14854,7 +15013,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -14868,7 +15027,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -14882,7 +15041,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -14896,7 +15055,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -14910,7 +15069,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -14924,7 +15083,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -14938,7 +15097,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -14952,7 +15111,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -14966,7 +15125,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -14980,7 +15139,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -14994,7 +15153,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -15008,7 +15167,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -15022,7 +15181,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -15036,7 +15195,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -15050,7 +15209,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -15064,7 +15223,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -15078,7 +15237,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -15092,7 +15251,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -15106,7 +15265,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -15120,7 +15279,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -15134,7 +15293,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -15148,7 +15307,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -15162,7 +15321,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -15326,7 +15485,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15603,7 +15762,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15613,7 +15772,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15890,7 +16049,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15900,7 +16059,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16177,7 +16336,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16187,13 +16346,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16754,7 +16913,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="2:50"/>
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16764,13 +16923,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,1107 +32,1095 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="367">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>model_v2</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m_glc__D_e</t>
-  </si>
-  <si>
-    <t>m_glc__D_p</t>
-  </si>
-  <si>
-    <t>m_atp_c</t>
-  </si>
-  <si>
-    <t>m_glc__D_c</t>
-  </si>
-  <si>
-    <t>m_adp_c</t>
-  </si>
-  <si>
-    <t>m_pi_c</t>
-  </si>
-  <si>
-    <t>m_g6p_c</t>
-  </si>
-  <si>
-    <t>m_glcn_p</t>
-  </si>
-  <si>
-    <t>m_glcn_c</t>
-  </si>
-  <si>
-    <t>m_6pgc_c</t>
-  </si>
-  <si>
-    <t>m_2dhglcn_p</t>
-  </si>
-  <si>
-    <t>m_2dhglcn_c</t>
-  </si>
-  <si>
-    <t>m_6p2dhglcn_c</t>
-  </si>
-  <si>
-    <t>m_nadh_c</t>
-  </si>
-  <si>
-    <t>m_nad_c</t>
-  </si>
-  <si>
-    <t>m_nadph_c</t>
-  </si>
-  <si>
-    <t>m_nadp_c</t>
-  </si>
-  <si>
-    <t>m_q8_c</t>
-  </si>
-  <si>
-    <t>m_q8h2_c</t>
-  </si>
-  <si>
-    <t>m_6pgl_c</t>
-  </si>
-  <si>
-    <t>m_co2_c</t>
-  </si>
-  <si>
-    <t>m_ru5p__D_c</t>
-  </si>
-  <si>
-    <t>m_r5p_c</t>
-  </si>
-  <si>
-    <t>m_xu5p__D_c</t>
-  </si>
-  <si>
-    <t>m_g3p_c</t>
-  </si>
-  <si>
-    <t>m_s7p_c</t>
-  </si>
-  <si>
-    <t>m_e4p_c</t>
-  </si>
-  <si>
-    <t>m_f6p_c</t>
-  </si>
-  <si>
-    <t>m_2ddg6p_c</t>
-  </si>
-  <si>
-    <t>m_pyr_c</t>
-  </si>
-  <si>
-    <t>m_fdp_c</t>
-  </si>
-  <si>
-    <t>m_dhap_c</t>
-  </si>
-  <si>
-    <t>m_13dpg_c</t>
-  </si>
-  <si>
-    <t>m_3pg_c</t>
-  </si>
-  <si>
-    <t>m_2pg_c</t>
-  </si>
-  <si>
-    <t>m_pep_c</t>
-  </si>
-  <si>
-    <t>m_h2o2_c</t>
-  </si>
-  <si>
-    <t>m_gthrd_c</t>
-  </si>
-  <si>
-    <t>m_gthox_c</t>
-  </si>
-  <si>
-    <t>m_h2o_c</t>
-  </si>
-  <si>
-    <t>m_pyr_e</t>
-  </si>
-  <si>
-    <t>m_pep_e</t>
-  </si>
-  <si>
-    <t>m_h2o2_e</t>
-  </si>
-  <si>
-    <t>m_g6p_e</t>
-  </si>
-  <si>
-    <t>m_6pgc_e</t>
-  </si>
-  <si>
-    <t>m_r5p_e</t>
-  </si>
-  <si>
-    <t>m_xu5p__D_e</t>
-  </si>
-  <si>
-    <t>m_g3p_e</t>
-  </si>
-  <si>
-    <t>m_e4p_e</t>
-  </si>
-  <si>
-    <t>m_f6p_e</t>
-  </si>
-  <si>
-    <t>m_3pg_e</t>
-  </si>
-  <si>
-    <t>R_GLCtex</t>
-  </si>
-  <si>
-    <t>R_GLCabcpp</t>
-  </si>
-  <si>
-    <t>R_GLK</t>
-  </si>
-  <si>
-    <t>R_GLCNt2rpp</t>
-  </si>
-  <si>
-    <t>R_GNK</t>
-  </si>
-  <si>
-    <t>R_2DHGLCNkt_tpp</t>
-  </si>
-  <si>
-    <t>R_2DHGLCK</t>
-  </si>
-  <si>
-    <t>R_PGLCNDH_NAD</t>
-  </si>
-  <si>
-    <t>R_PGLCNDH_NADP</t>
-  </si>
-  <si>
-    <t>R_GLCDpp</t>
-  </si>
-  <si>
-    <t>R_GAD2ktpp</t>
-  </si>
-  <si>
-    <t>R_G6PDH2</t>
-  </si>
-  <si>
-    <t>R_G6PDH2_NAD</t>
-  </si>
-  <si>
-    <t>R_G6PDH2_NADP</t>
-  </si>
-  <si>
-    <t>R_PGL</t>
-  </si>
-  <si>
-    <t>R_GND_NAD</t>
-  </si>
-  <si>
-    <t>R_GND_NADP</t>
-  </si>
-  <si>
-    <t>R_RPI</t>
-  </si>
-  <si>
-    <t>R_RPE</t>
-  </si>
-  <si>
-    <t>R_TKT1</t>
-  </si>
-  <si>
-    <t>R_TKT2</t>
-  </si>
-  <si>
-    <t>R_TALA</t>
-  </si>
-  <si>
-    <t>R_EDD</t>
-  </si>
-  <si>
-    <t>R_EDA</t>
-  </si>
-  <si>
-    <t>R_PGI</t>
-  </si>
-  <si>
-    <t>R_FBP</t>
-  </si>
-  <si>
-    <t>R_FBA</t>
-  </si>
-  <si>
-    <t>R_TPI</t>
-  </si>
-  <si>
-    <t>R_GAPD</t>
-  </si>
-  <si>
-    <t>R_PGK</t>
-  </si>
-  <si>
-    <t>R_PGM</t>
-  </si>
-  <si>
-    <t>R_ENO</t>
-  </si>
-  <si>
-    <t>R_PYK</t>
-  </si>
-  <si>
-    <t>R_GTHPi</t>
-  </si>
-  <si>
-    <t>R_GTHOr</t>
-  </si>
-  <si>
-    <t>R_AXPr</t>
-  </si>
-  <si>
-    <t>R_NADHr</t>
-  </si>
-  <si>
-    <t>R_NADPHr</t>
-  </si>
-  <si>
-    <t>R_EX_pyr</t>
-  </si>
-  <si>
-    <t>R_EX_pep</t>
-  </si>
-  <si>
-    <t>R_EX_h2o2</t>
-  </si>
-  <si>
-    <t>R_EX_g6p</t>
-  </si>
-  <si>
-    <t>R_EX_6pgc</t>
-  </si>
-  <si>
-    <t>R_EX_r5p</t>
-  </si>
-  <si>
-    <t>R_EX_xu5p__D</t>
-  </si>
-  <si>
-    <t>R_EX_g3p</t>
-  </si>
-  <si>
-    <t>R_EX_e4p</t>
-  </si>
-  <si>
-    <t>R_EX_f6p</t>
-  </si>
-  <si>
-    <t>R_EX_3pg</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>D-glucose extracellular</t>
-  </si>
-  <si>
-    <t>D-glucose periplasm</t>
-  </si>
-  <si>
-    <t>atp cytoplasm</t>
-  </si>
-  <si>
-    <t>D-glucose cytoplasm</t>
-  </si>
-  <si>
-    <t>adp cytoplasm</t>
-  </si>
-  <si>
-    <t>phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>alpha D-glucose 6 phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-gluconate periplasm</t>
-  </si>
-  <si>
-    <t>D-gluconate cytoplasm</t>
-  </si>
-  <si>
-    <t>6-phospho-D-gluconate cytoplasm</t>
-  </si>
-  <si>
-    <t>2-Dehydro-D-gluconate periplasm</t>
-  </si>
-  <si>
-    <t>2-Dehydro-D-gluconate cytosol</t>
-  </si>
-  <si>
-    <t>6-phospho-2-Dehydro-D-gluconate cytosol</t>
-  </si>
-  <si>
-    <t>nad cytoplasm</t>
-  </si>
-  <si>
-    <t>nadh cytoplasm</t>
-  </si>
-  <si>
-    <t>nadph cytoplasm</t>
-  </si>
-  <si>
-    <t>nadp cytoplasm</t>
-  </si>
-  <si>
-    <t>Ubiquinone-8</t>
-  </si>
-  <si>
-    <t>Ubiquinol-8</t>
-  </si>
-  <si>
-    <t>6-phospho D-glucono-1,5-lactone</t>
-  </si>
-  <si>
-    <t>carbon dioxide</t>
-  </si>
-  <si>
-    <t>D-ribulose-5-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>alpha-D-ribose-5-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-xylulose-5-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-glyceraldehyde 3-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>Sedoheptulose-7-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-erythrose-4-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-fructose-6-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>2-dehydro-3-deoxy-D-gluconate 6-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>pyruvate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-fructose-1,6-bisphosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>Dehydroxyacetone-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>3-phospho-D-glyceroyl-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>3-phospho-D-glycerate cytoplasm</t>
-  </si>
-  <si>
-    <t>2-phospho-D-glycerate cytoplasm</t>
-  </si>
-  <si>
-    <t>phosphoenolpyruvate cytoplasm</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide cytoplasm</t>
-  </si>
-  <si>
-    <t>reduced glutathione</t>
-  </si>
-  <si>
-    <t>oxidized glutathione</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>pyruvate extracellular</t>
-  </si>
-  <si>
-    <t>phosphoenolpyruvate extracellular</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide extracellular</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>Glucose transport via diffusion (extracellular to periplasm)</t>
-  </si>
-  <si>
-    <t>D-glucose transport via ABC system (periplasm)</t>
-  </si>
-  <si>
-    <t>Glucokinase</t>
-  </si>
-  <si>
-    <t>D-gluconate transport via proton symport, reversible (periplasm)</t>
-  </si>
-  <si>
-    <t>Gluconokinase</t>
-  </si>
-  <si>
-    <t>Ketogluconate transporter</t>
-  </si>
-  <si>
-    <t>dehydroglucokinase</t>
-  </si>
-  <si>
-    <t>Phosphogluconate-2-dehydrogenase</t>
-  </si>
-  <si>
-    <t>Glucose dehydrogenase (ubiquinone-8 as acceptor) (periplasm)</t>
-  </si>
-  <si>
-    <t>Gluconate-2-dehydrogenase periplasm</t>
-  </si>
-  <si>
-    <t>Glucose-6-phosphate dehydrogenase</t>
-  </si>
-  <si>
-    <t>G6PDH2</t>
-  </si>
-  <si>
-    <t>6-Phosphogluconolactonase</t>
-  </si>
-  <si>
-    <t>Phosphogluconate dehydrogenase</t>
-  </si>
-  <si>
-    <t>Ribose-5-phosphate isomerase</t>
-  </si>
-  <si>
-    <t>Ribulose 5-phosphate 3-epimerase</t>
-  </si>
-  <si>
-    <t>Transketolase 1</t>
-  </si>
-  <si>
-    <t>Transketolase 2</t>
-  </si>
-  <si>
-    <t>transaldolase</t>
-  </si>
-  <si>
-    <t>6-Phosphogluconate dehydratase</t>
-  </si>
-  <si>
-    <t>2-dehydro-3-deoxy-phosphogluconate aldolase</t>
-  </si>
-  <si>
-    <t>Glucose-6-phosphate-isomerase</t>
-  </si>
-  <si>
-    <t>Fructose-biphosphatase</t>
-  </si>
-  <si>
-    <t>Fructose-biphosphate-aldolase</t>
-  </si>
-  <si>
-    <t>Triose phosphate isomerase</t>
-  </si>
-  <si>
-    <t>Glyceraldehyde-3-phosphate dehydrogenase</t>
-  </si>
-  <si>
-    <t>Phosphoglycerate kinase</t>
-  </si>
-  <si>
-    <t>Phosphoglycerate mutase</t>
-  </si>
-  <si>
-    <t>Enolase</t>
-  </si>
-  <si>
-    <t>Pyruvate kinase</t>
-  </si>
-  <si>
-    <t>Glutathione peridoxase</t>
-  </si>
-  <si>
-    <t>Glutathione oxidoreductase</t>
-  </si>
-  <si>
-    <t>atp and adp regeneration</t>
-  </si>
-  <si>
-    <t>nad and nadh regeneration</t>
-  </si>
-  <si>
-    <t>nadp and nadph regeneration</t>
-  </si>
-  <si>
-    <t>pyruvate exchange</t>
-  </si>
-  <si>
-    <t>phosphoenlopyruvate exchange</t>
-  </si>
-  <si>
-    <t>peroxide exchange</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>MBo10_std2</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effectors</t>
-  </si>
-  <si>
-    <t>positive effectors</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>mechanism_refs_type</t>
-  </si>
-  <si>
-    <t>mechanism_refs</t>
-  </si>
-  <si>
-    <t>inhibitors_refs_type</t>
-  </si>
-  <si>
-    <t>inhibitors_refs</t>
-  </si>
-  <si>
-    <t>activators_refs_type</t>
-  </si>
-  <si>
-    <t>activators_refs</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs</t>
-  </si>
-  <si>
-    <t>subunits_refs_type</t>
-  </si>
-  <si>
-    <t>subunits_refs</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>m_glc_D_e</t>
-  </si>
-  <si>
-    <t>m_glc_D_p</t>
-  </si>
-  <si>
-    <t>doi</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gkv1049</t>
-  </si>
-  <si>
-    <t>diffusion setting subunits to 1</t>
-  </si>
-  <si>
-    <t>orderedBiTer</t>
-  </si>
-  <si>
-    <t>m_glc_D_p m_atp_c</t>
-  </si>
-  <si>
-    <t>m_adp_c m_pi_c m_glc_D_c</t>
-  </si>
-  <si>
-    <t>10.1146/annurev.biochem.73.011303.073626</t>
-  </si>
-  <si>
-    <t>assumed subunits</t>
-  </si>
-  <si>
-    <t>randomBiBi</t>
-  </si>
-  <si>
-    <t>m_glc_D_e m_atp_c</t>
-  </si>
-  <si>
-    <t>m_adp_c m_g6p_c</t>
-  </si>
-  <si>
-    <t>10.1016/0003-9861(72)90354-2</t>
-  </si>
-  <si>
-    <t>looks like 1 subunit from metacyc</t>
-  </si>
-  <si>
-    <t>uniUni</t>
-  </si>
-  <si>
-    <t>m_glcn_c m_atp_c</t>
-  </si>
-  <si>
-    <t>m_adp_c m_6pgc_c</t>
-  </si>
-  <si>
-    <t>PMID</t>
-  </si>
-  <si>
-    <t>2dhglcn_p</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m_atp_c  m_2dhglcn_c</t>
-  </si>
-  <si>
-    <t>m_6p2dhglcn_c m_adp_c</t>
-  </si>
-  <si>
-    <t>PGLCNDH</t>
-  </si>
-  <si>
-    <t>m_nad_c m_6p2dhglcn_c</t>
-  </si>
-  <si>
-    <t>m_6pgc_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>R_PGLCNDH_NAD R_PGLCNDH_NADP</t>
-  </si>
-  <si>
-    <t>m_nadp_c m_6p2dhglcn_c</t>
-  </si>
-  <si>
-    <t>m_6pgc_c m_nadph_c</t>
-  </si>
-  <si>
-    <t>pingPongBiBi</t>
-  </si>
-  <si>
-    <t>m_glc_D_p m_q8_c</t>
-  </si>
-  <si>
-    <t>m_glcn_p m_q8h2_c</t>
-  </si>
-  <si>
-    <t>10.1021/ja204637d 10.1021/bi00368a031</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijbiomac.2018.06.097</t>
-  </si>
-  <si>
-    <t>m_q8_c m_glcn_p</t>
-  </si>
-  <si>
-    <t>m_2dhglcn_p m_q8h2_c</t>
-  </si>
-  <si>
-    <t>m_nadp_c m_g6p_c</t>
-  </si>
-  <si>
-    <t>m_6pgl_c m_nadph_c</t>
-  </si>
-  <si>
-    <t>m_nadph_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>10.1016/0003-9861(83)90546-5</t>
-  </si>
-  <si>
-    <t>PMID PMID PMID; PMID PMID PMID</t>
-  </si>
-  <si>
-    <t>468836 4154934 7350909; 468836 4154934 7350909</t>
-  </si>
-  <si>
-    <t>PMID PMID PMID PMID</t>
-  </si>
-  <si>
-    <t>1257 468836 4154934 7350909</t>
-  </si>
-  <si>
-    <t>G6PDH2CompInhib</t>
-  </si>
-  <si>
-    <t>m_nad_c m_g6p_c</t>
-  </si>
-  <si>
-    <t>m_6pgl_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>R_G6PDH2_NAD R_G6PDH2_NADH</t>
-  </si>
-  <si>
-    <t>GNDCompInhib</t>
-  </si>
-  <si>
-    <t>m_6pgc_c m_nad_c</t>
-  </si>
-  <si>
-    <t>m_nadh_c m_ru5p_D_c</t>
-  </si>
-  <si>
-    <t>R_GND_nad R_GND_nadp</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 2</t>
-  </si>
-  <si>
-    <t>m_6pgc_c m_nadp_c</t>
-  </si>
-  <si>
-    <t>m_nadph_c m_ru5p_D_c</t>
-  </si>
-  <si>
-    <t>m_ru5p_D_c</t>
-  </si>
-  <si>
-    <t>link PMID</t>
-  </si>
-  <si>
-    <t>https://www.rcsb.org/structure/4x84 12517338</t>
-  </si>
-  <si>
-    <t>m_xu5p_D_c</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gky1048</t>
-  </si>
-  <si>
-    <t>m_r5p_c m_xu5p_D_c</t>
-  </si>
-  <si>
-    <t>m_g3p_c m_s7p_c</t>
-  </si>
-  <si>
-    <t>Link PMID</t>
-  </si>
-  <si>
-    <t>https://www.rcsb.org/structure/4XEU 17914867</t>
-  </si>
-  <si>
-    <t>m_xu5p_D_c m_e4p_c</t>
-  </si>
-  <si>
-    <t>m_g3p_c m_f6p_c</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 1</t>
-  </si>
-  <si>
-    <t>m_s7p_c m_g3p_c</t>
-  </si>
-  <si>
-    <t>m_e4pc_m_f6p_c</t>
-  </si>
-  <si>
-    <t>DOI PMID</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gky1048 8805555</t>
-  </si>
-  <si>
-    <t>same as in e. coli and some other organisms in brenda</t>
-  </si>
-  <si>
-    <t>uniUniActivTwoTracks</t>
-  </si>
-  <si>
-    <t>randomUniBi</t>
-  </si>
-  <si>
-    <t>m_g3p_c m_pyr_c</t>
-  </si>
-  <si>
-    <t>10.1016/S1874-6047(08)60452-7</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 3</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707</t>
-  </si>
-  <si>
-    <t>orderedUniBi</t>
-  </si>
-  <si>
-    <t>m_f6p_c m_pi_c</t>
-  </si>
-  <si>
-    <t>https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 4 for fbp1 and 2 for fbp2</t>
-  </si>
-  <si>
-    <t>orderedBiUni</t>
-  </si>
-  <si>
-    <t>m_dhap_c m_g3p_c</t>
-  </si>
-  <si>
-    <t>doi PMID PMID</t>
-  </si>
-  <si>
-    <t>10.1016/0006-3002(58)90242-7 10712619 2649077</t>
-  </si>
-  <si>
-    <t>10.1016/j.pep.2011.06.020</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 10 for fba1 and 2 for fba2</t>
-  </si>
-  <si>
-    <t>10.1007/s00018-010-0473-9</t>
-  </si>
-  <si>
-    <t>orderedTerBi</t>
-  </si>
-  <si>
-    <t>m_nad_c m_g3p_c m_pi_c</t>
-  </si>
-  <si>
-    <t>m_13dpg_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 24</t>
-  </si>
-  <si>
-    <t>m_adp_c m_13dpg_c</t>
-  </si>
-  <si>
-    <t>m_3pg_c m_atp_c</t>
-  </si>
-  <si>
-    <t>10.1074/jbc.275.15.11147</t>
-  </si>
-  <si>
-    <t>PMID PMID</t>
-  </si>
-  <si>
-    <t>17085493 10437801</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 2 for 23dpg-dependent and 1 for independent</t>
-  </si>
-  <si>
-    <t>m_adp_c m_pep_c</t>
-  </si>
-  <si>
-    <t>m_atp_c m_pyr_c</t>
-  </si>
-  <si>
-    <t>m_2ddg6p_c m_r5p_c m_f6p_c</t>
-  </si>
-  <si>
-    <t>10.1111/j.0022-3646.1992.00472.x</t>
-  </si>
-  <si>
-    <t>PMID PMID PMID</t>
-  </si>
-  <si>
-    <t>468836 468836 468836</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 4</t>
-  </si>
-  <si>
-    <t>orderedTerUni</t>
-  </si>
-  <si>
-    <t>m_h2o2_c m_gthrd_c m_gthrd_c</t>
-  </si>
-  <si>
-    <t>10.1016/j.bbagen.2012.09.018</t>
-  </si>
-  <si>
-    <t>doi doi</t>
-  </si>
-  <si>
-    <t>10.1016/j.bbagen.2012.09.018 10.1093/emboj/cdf670</t>
-  </si>
-  <si>
-    <t>pingPongUniUniUniBi</t>
-  </si>
-  <si>
-    <t>m_nadph_c m_gthox_c</t>
-  </si>
-  <si>
-    <t>m_nadp_c m_gthrd_c m_gthrd_c</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>massAction setting subunits to 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="363">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model_v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc__D_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc__D_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc__D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2dhglcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6p2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nad_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadph_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_q8_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_q8h2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgl_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_co2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_ru5p__D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_r5p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_xu5p__D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_s7p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_e4p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2ddg6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pyr_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_fdp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_dhap_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_13dpg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_3pg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2pg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pep_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_h2o2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_gthrd_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_gthox_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_h2o_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pyr_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pep_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_h2o2_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g6p_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_r5p_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_xu5p__D_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_e4p_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_f6p_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_3pg_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCtex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCabcpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCNt2rpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2DHGLCNkt_tpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2DHGLCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGLCNDH_NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGLCNDH_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCDpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GAD2ktpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2_NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GND_NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GND_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_RPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_RPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TKT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TKT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_FBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_FBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GAPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_ENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PYK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GTHPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GTHOr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_AXPr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_NADHr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_NADPHr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_pyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_pep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_h2o2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_g6p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_6pgc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_r5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_xu5p__D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_g3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_e4p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_f6p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_3pg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atp cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adp cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha D-glucose 6 phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phospho-D-gluconate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Dehydro-D-gluconate periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Dehydro-D-gluconate cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phospho-2-Dehydro-D-gluconate cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nad cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadh cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadph cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadp cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubiquinone-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubiquinol-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phospho D-glucono-1,5-lactone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-ribulose-5-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-ribose-5-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-xylulose-5-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glyceraldehyde 3-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedoheptulose-7-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-erythrose-4-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-fructose-6-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-dehydro-3-deoxy-D-gluconate 6-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-fructose-1,6-bisphosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehydroxyacetone-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phospho-D-glyceroyl-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phospho-D-glycerate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-phospho-D-glycerate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenolpyruvate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydrogen peroxide cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduced glutathione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxidized glutathione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenolpyruvate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydrogen peroxide extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transport reaction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose transport via diffusion (extracellular to periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose transport via ABC system (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate transport via proton symport, reversible (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gluconokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketogluconate transporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dehydroglucokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphogluconate-2-dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose dehydrogenase (ubiquinone-8 as acceptor) (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gluconate-2-dehydrogenase periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose-6-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6PDH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Phosphogluconolactonase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphogluconate dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribose-5-phosphate isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribulose 5-phosphate 3-epimerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transketolase 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transketolase 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transaldolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Phosphogluconate dehydratase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-dehydro-3-deoxy-phosphogluconate aldolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose-6-phosphate-isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose-biphosphatase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose-biphosphate-aldolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triose phosphate isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyceraldehyde-3-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphoglycerate kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphoglycerate mutase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutathione peridoxase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutathione oxidoreductase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atp and adp regeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nad and nadh regeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadp and nadph regeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenlopyruvate exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peroxide exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction/enzyme ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gkv1049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion setting subunits to 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiTer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_p m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_pi_c m_glc_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1146/annurev.biochem.73.011303.073626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_e m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_g6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/0003-9861(72)90354-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">looks like 1 subunit from metacyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_c m_atp_c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_6pgc_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dhglcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_atp_c  m_2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6p2dhglcn_c m_adp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGLCNDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nad_c m_6p2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_c m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGLCNDH_NAD R_PGLCNDH_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadp_c m_6p2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_c m_nadph_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pingPongBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_p m_q8_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_p m_q8h2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/ja204637d 10.1021/bi00368a031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ijbiomac.2018.06.097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_q8_c m_glcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2dhglcn_p m_q8h2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadp_c m_g6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgl_c m_nadph_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadph_c m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/0003-9861(83)90546-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID PMID PMID; PMID PMID PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">468836 4154934 7350909; 468836 4154934 7350909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID PMID PMID PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1257 468836 4154934 7350909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6PDH2CompInhib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nad_c m_g6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgl_c m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2_NAD R_G6PDH2_NADH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadph_c m_nadh_c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNDCompInhib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_c m_nad_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadh_c m_ru5p_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GND_nad R_GND_nadp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_c m_nadp_c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadph_c m_ru5p_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_ru5p_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rcsb.org/structure/4x84 12517338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_xu5p_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gky1048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_r5p_c m_xu5p_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_c m_s7p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rcsb.org/structure/4XEU 17914867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_xu5p_D_c m_e4p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_c m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_s7p_c m_g3p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_e4pc_m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gky1048 8805555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as in e. coli and some other organisms in brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniUniActivTwoTracks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_c m_pyr_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/S1874-6047(08)60452-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_f6p_c m_pi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 4 for fbp1 and 2 for fbp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_dhap_c m_g3p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi PMID PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/0006-3002(58)90242-7 10712619 2649077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.pep.2011.06.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 10 for fba1 and 2 for fba2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1007/s00018-010-0473-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedTerBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nad_c m_g3p_c m_pi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_13dpg_c m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_13dpg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_3pg_c m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1074/jbc.275.15.11147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17085493 10437801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 2 for 23dpg-dependent and 1 for independent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_pep_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_atp_c m_pyr_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2ddg6p_c m_r5p_c m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/j.0022-3646.1992.00472.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID PMID PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">468836 468836 468836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedTerUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_h2o2_c m_gthrd_c m_gthrd_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi doi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018 10.1093/emboj/cdf670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pingPongUniUniUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadph_c m_gthox_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadp_c m_gthrd_c m_gthrd_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction setting subunits to 1</t>
   </si>
 </sst>
 </file>
@@ -1140,9 +1128,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1168,14 +1156,6 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1238,11 +1218,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1251,15 +1231,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1283,13 +1255,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,7 +1370,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1413,33 +1385,34 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -1450,13 +1423,13 @@
         <v>611</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>960</v>
+        <v>6140</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -1467,13 +1440,13 @@
         <v>60</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -1490,7 +1463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -1507,7 +1480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -1524,7 +1497,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -1541,7 +1514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -1558,7 +1531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -1575,7 +1548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
@@ -1592,7 +1565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -1609,7 +1582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -1626,7 +1599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -1643,7 +1616,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -1660,7 +1633,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -1677,7 +1650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -1694,7 +1667,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -1711,7 +1684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -1728,7 +1701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -1745,7 +1718,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -1762,7 +1735,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -1779,7 +1752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -1796,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -1813,7 +1786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -1830,7 +1803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
@@ -1847,7 +1820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -1864,7 +1837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
@@ -1881,7 +1854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
@@ -1898,7 +1871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -1915,7 +1888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -1932,7 +1905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -1949,7 +1922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -1966,7 +1939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
@@ -1983,7 +1956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -2000,7 +1973,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -2017,7 +1990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -2034,7 +2007,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -2051,7 +2024,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -2068,7 +2041,7 @@
         <v>533.75</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
@@ -2085,7 +2058,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
@@ -2102,7 +2075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
@@ -2119,7 +2092,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -2136,7 +2109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -2153,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -2170,7 +2143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -2187,7 +2160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -2204,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -2221,7 +2194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
@@ -2238,7 +2211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
@@ -2255,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
@@ -2275,7 +2248,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2290,27 +2263,27 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,7 +2975,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3017,27 +2990,27 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,7 +3730,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3772,87 +3745,87 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,25 +3833,25 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="X2" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,25 +3859,25 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,25 +3885,25 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,7 +3911,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>25</v>
@@ -3950,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,37 +3931,37 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M6" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>267</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>5470828</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,10 +3969,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>29</v>
@@ -4008,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,19 +3989,19 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,16 +4009,16 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2</v>
@@ -4056,22 +4029,22 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>277</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4079,31 +4052,31 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4111,19 +4084,19 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,52 +4104,52 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>6815421</v>
@@ -4187,19 +4160,19 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>20</v>
@@ -4208,37 +4181,37 @@
         <v>24</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>6815421</v>
@@ -4249,19 +4222,19 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>20</v>
@@ -4270,43 +4243,43 @@
         <v>24</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>6815421</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,16 +4361,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>33</v>
@@ -4406,25 +4379,25 @@
         <v>2</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,16 +4405,16 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>33</v>
@@ -4450,36 +4423,36 @@
         <v>2</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>19686854</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>40</v>
@@ -4488,10 +4461,10 @@
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,89 +4472,89 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="X22" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4589,31 +4562,31 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,7 +4594,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>27</v>
@@ -4636,19 +4609,19 @@
         <v>2</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>6326623</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,39 +4629,39 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W25" s="0" t="n">
         <v>12876349</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>24</v>
@@ -4700,39 +4673,39 @@
         <v>2</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>4</v>
       </c>
       <c r="V27" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="W27" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="W27" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="X27" s="0" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4740,10 +4713,10 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>48</v>
@@ -4752,19 +4725,19 @@
         <v>4</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,7 +4745,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>42</v>
@@ -4784,13 +4757,13 @@
         <v>2</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,37 +4771,37 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>54</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W30" s="0" t="n">
         <v>8636984</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,31 +4809,31 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>5128739</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,7 +4841,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>51</v>
@@ -4880,13 +4853,13 @@
         <v>1</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,7 +4867,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>52</v>
@@ -4906,13 +4879,13 @@
         <v>2</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W33" s="0" t="n">
         <v>9376357</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,43 +4893,43 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W34" s="0" t="n">
         <v>468836</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,10 +4937,10 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>56</v>
@@ -4976,16 +4949,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,28 +4966,28 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,7 +4995,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
@@ -5033,7 +5006,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
@@ -5044,7 +5017,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>1</v>
@@ -5055,7 +5028,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>47</v>
@@ -5067,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="X40" s="0" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,7 +5048,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>53</v>
@@ -5087,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="X41" s="0" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,7 +5068,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>60</v>
@@ -5107,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="X42" s="0" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +5685,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5727,13 +5700,13 @@
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13639,7 +13612,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13654,13 +13627,13 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q27" activeCellId="0" sqref="Q27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14706,7 +14679,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14721,30 +14694,30 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14752,7 +14725,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -14766,7 +14739,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -14780,7 +14753,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -14794,7 +14767,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -14808,7 +14781,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -14822,7 +14795,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -14836,7 +14809,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -14850,7 +14823,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -14864,7 +14837,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -14878,7 +14851,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -14892,7 +14865,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -14906,7 +14879,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -14915,7 +14888,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14923,7 +14896,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -14932,7 +14905,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14940,7 +14913,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -14949,7 +14922,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14957,7 +14930,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -14971,7 +14944,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -14985,7 +14958,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -14999,7 +14972,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -15013,7 +14986,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -15027,7 +15000,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -15041,7 +15014,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -15055,7 +15028,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -15069,7 +15042,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -15083,7 +15056,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -15097,7 +15070,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -15111,7 +15084,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -15125,7 +15098,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -15139,7 +15112,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -15153,7 +15126,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -15167,7 +15140,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -15181,7 +15154,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -15195,7 +15168,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -15209,7 +15182,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -15223,7 +15196,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -15237,7 +15210,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -15251,7 +15224,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -15265,7 +15238,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -15279,7 +15252,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -15293,7 +15266,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -15307,7 +15280,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -15321,7 +15294,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -15469,7 +15442,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15484,18 +15457,18 @@
   </sheetPr>
   <dimension ref="A2:A51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15746,7 +15719,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15761,18 +15734,18 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16033,7 +16006,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16048,18 +16021,18 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16320,7 +16293,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16335,24 +16308,24 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16897,7 +16870,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16912,24 +16885,24 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17496,7 +17469,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="thermoMets" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="mets" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="rxns" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="splitRatios" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="poolConst" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermo_ineq_constraints" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="thermoRxns" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
@@ -391,6 +391,12 @@
     <t xml:space="preserve">metabolite ID</t>
   </si>
   <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Metabolite name</t>
   </si>
   <si>
@@ -668,12 +674,6 @@
   </si>
   <si>
     <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max (M)</t>
   </si>
   <si>
     <t xml:space="preserve">vref_mean (mmol/L/h)</t>
@@ -1397,7 +1397,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>214</v>
@@ -3756,7 +3756,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>220</v>
@@ -13625,6 +13625,605 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -13641,19 +14240,19 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13661,7 +14260,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -13681,7 +14280,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -13701,7 +14300,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -13721,7 +14320,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -13741,7 +14340,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -13761,7 +14360,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -13781,7 +14380,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -13801,7 +14400,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -13821,7 +14420,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -13841,7 +14440,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -13861,7 +14460,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -13881,7 +14480,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -13901,7 +14500,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -13921,7 +14520,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -13941,7 +14540,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -13961,7 +14560,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -13981,7 +14580,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -14001,7 +14600,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -14021,7 +14620,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -14041,7 +14640,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -14061,7 +14660,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -14081,7 +14680,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -14101,7 +14700,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -14121,7 +14720,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -14141,7 +14740,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -14161,7 +14760,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -14181,7 +14780,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -14201,7 +14800,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -14221,7 +14820,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -14241,7 +14840,7 @@
         <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -14261,7 +14860,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -14281,7 +14880,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -14301,7 +14900,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -14321,7 +14920,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -14341,7 +14940,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -14361,7 +14960,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -14381,7 +14980,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -14401,7 +15000,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -14421,7 +15020,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -14441,7 +15040,7 @@
         <v>57</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -14461,7 +15060,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -14481,7 +15080,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -14501,7 +15100,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -14687,7 +15286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14705,19 +15304,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14725,7 +15324,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -14739,7 +15338,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -14753,7 +15352,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -14767,7 +15366,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -14781,7 +15380,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -14795,7 +15394,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -14809,7 +15408,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -14823,7 +15422,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -14837,7 +15436,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -14851,7 +15450,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -14865,7 +15464,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -14879,7 +15478,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -14888,7 +15487,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14896,7 +15495,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -14905,7 +15504,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14913,7 +15512,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -14922,7 +15521,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14930,7 +15529,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -14944,7 +15543,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -14958,7 +15557,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -14972,7 +15571,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -14986,7 +15585,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -15000,7 +15599,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -15014,7 +15613,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -15028,7 +15627,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -15042,7 +15641,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -15056,7 +15655,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -15070,7 +15669,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -15084,7 +15683,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -15098,7 +15697,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -15112,7 +15711,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -15126,7 +15725,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -15140,7 +15739,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -15154,7 +15753,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -15168,7 +15767,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -15182,7 +15781,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -15196,7 +15795,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -15210,7 +15809,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -15224,7 +15823,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -15238,7 +15837,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -15252,7 +15851,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -15266,7 +15865,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -15280,7 +15879,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -15294,7 +15893,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -15450,7 +16049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15468,7 +16067,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15714,293 +16313,6 @@
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:A53"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -16306,7 +16618,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -16317,554 +16629,264 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -16883,9 +16905,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -16896,7 +16918,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>212</v>
@@ -16907,7 +16929,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -16918,7 +16940,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -16929,7 +16951,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -16940,7 +16962,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -16951,7 +16973,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -16962,7 +16984,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -16973,7 +16995,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -16984,7 +17006,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -16995,7 +17017,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -17006,7 +17028,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -17017,7 +17039,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -17028,7 +17050,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -17039,7 +17061,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -17050,7 +17072,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -17061,7 +17083,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -17072,7 +17094,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -17083,7 +17105,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -17094,7 +17116,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -17105,7 +17127,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -17116,7 +17138,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -17127,7 +17149,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -17138,7 +17160,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -17149,7 +17171,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -17160,7 +17182,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -17171,7 +17193,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -17182,7 +17204,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -17193,7 +17215,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -17204,7 +17226,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -17215,7 +17237,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -17226,7 +17248,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -17237,7 +17259,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -17248,7 +17270,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -17259,7 +17281,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -17270,7 +17292,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -17281,7 +17303,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -17292,7 +17314,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -17303,7 +17325,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -17314,7 +17336,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -17325,7 +17347,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -17336,7 +17358,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -17347,7 +17369,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -17358,7 +17380,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -17369,7 +17391,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -17378,92 +17400,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1E-012</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="311">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -1045,7 +1054,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1056,6 +1065,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1075,17 +1088,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="43:50 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,29 +1143,29 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1160,30 +1173,44 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1203,31 +1230,31 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="43:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1241,7 +1268,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1255,7 +1282,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1269,7 +1296,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1283,7 +1310,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1297,7 +1324,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1311,7 +1338,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1325,7 +1352,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1339,7 +1366,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1353,7 +1380,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1367,7 +1394,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1381,7 +1408,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1395,7 +1422,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1409,7 +1436,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1423,7 +1450,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1437,7 +1464,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1451,7 +1478,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1465,7 +1492,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1479,7 +1506,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1493,7 +1520,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1507,7 +1534,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1521,7 +1548,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1535,7 +1562,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1549,7 +1576,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1563,7 +1590,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1577,7 +1604,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1591,7 +1618,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1605,7 +1632,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -1619,7 +1646,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1633,7 +1660,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1647,7 +1674,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1661,7 +1688,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1675,7 +1702,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1689,7 +1716,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -1703,7 +1730,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -1717,7 +1744,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -1731,7 +1758,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -1745,7 +1772,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -1759,7 +1786,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -1773,7 +1800,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -1787,7 +1814,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -1801,7 +1828,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -1815,7 +1842,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -1829,7 +1856,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -1843,7 +1870,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -1857,7 +1884,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -1871,7 +1898,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -1885,7 +1912,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -1899,7 +1926,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -1930,31 +1957,31 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="43:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1968,7 +1995,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1982,7 +2009,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1996,7 +2023,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2010,7 +2037,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2024,7 +2051,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2038,7 +2065,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2052,7 +2079,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2066,7 +2093,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2080,7 +2107,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2094,7 +2121,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2108,7 +2135,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2122,7 +2149,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2136,7 +2163,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -2150,7 +2177,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2164,7 +2191,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -2178,7 +2205,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -2192,7 +2219,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -2206,7 +2233,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -2220,7 +2247,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -2234,7 +2261,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -2248,7 +2275,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -2262,7 +2289,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -2276,7 +2303,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -2290,7 +2317,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2304,7 +2331,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -2318,7 +2345,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2332,7 +2359,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -2346,7 +2373,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2360,7 +2387,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -2374,7 +2401,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -2388,7 +2415,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -2402,7 +2429,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2416,7 +2443,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -2430,7 +2457,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -2444,7 +2471,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -2458,7 +2485,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -2472,7 +2499,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -2486,7 +2513,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -2500,7 +2527,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -2514,7 +2541,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -2528,7 +2555,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -2542,7 +2569,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -2556,7 +2583,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2570,7 +2597,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2584,7 +2611,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2598,7 +2625,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2612,7 +2639,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2626,7 +2653,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2640,7 +2667,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -2654,7 +2681,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -2684,102 +2711,102 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="43:50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="981" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="981" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="982" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
@@ -2787,16 +2814,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
@@ -2804,16 +2831,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2</v>
@@ -2821,16 +2848,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
@@ -2838,19 +2865,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -2861,16 +2888,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
@@ -2878,16 +2905,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
@@ -2895,19 +2922,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2</v>
@@ -2915,19 +2942,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2</v>
@@ -2935,16 +2962,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
@@ -2952,16 +2979,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
@@ -2969,22 +2996,22 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
@@ -2995,28 +3022,28 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>1</v>
@@ -3027,28 +3054,28 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>265</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>1</v>
@@ -3059,7 +3086,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -3133,22 +3160,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2</v>
@@ -3156,22 +3183,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>2</v>
@@ -3179,16 +3206,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>2</v>
@@ -3196,16 +3223,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>2</v>
@@ -3213,16 +3240,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>2</v>
@@ -3230,16 +3257,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>2</v>
@@ -3247,16 +3274,16 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
@@ -3264,19 +3291,19 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>2</v>
@@ -3284,16 +3311,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>3</v>
@@ -3301,16 +3328,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>2</v>
@@ -3318,16 +3345,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>4</v>
@@ -3335,16 +3362,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>4</v>
@@ -3352,16 +3379,16 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>2</v>
@@ -3369,19 +3396,19 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>1</v>
@@ -3392,16 +3419,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1</v>
@@ -3409,16 +3436,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>1</v>
@@ -3426,16 +3453,16 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2</v>
@@ -3443,19 +3470,19 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>1</v>
@@ -3466,16 +3493,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1</v>
@@ -3483,16 +3510,16 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
@@ -3500,10 +3527,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
@@ -3511,10 +3538,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
@@ -3522,10 +3549,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>1</v>
@@ -3533,16 +3560,16 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>1</v>
@@ -3550,16 +3577,16 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>1</v>
@@ -3567,16 +3594,16 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>1</v>
@@ -3584,7 +3611,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -3658,7 +3685,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -3732,7 +3759,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -3806,7 +3833,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -3880,7 +3907,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -3954,7 +3981,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -4028,7 +4055,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -4102,7 +4129,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -4193,175 +4220,175 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="43:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -4519,7 +4546,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4677,7 +4704,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4835,7 +4862,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4993,7 +5020,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5151,7 +5178,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5309,7 +5336,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5467,7 +5494,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5625,7 +5652,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -5783,7 +5810,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5941,7 +5968,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -6099,7 +6126,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6257,7 +6284,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -6415,7 +6442,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6573,7 +6600,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6731,7 +6758,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6889,7 +6916,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -7047,7 +7074,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -7205,7 +7232,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -7363,7 +7390,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7521,7 +7548,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -7679,7 +7706,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7837,7 +7864,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7995,7 +8022,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -8153,7 +8180,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -8311,7 +8338,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -8469,7 +8496,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -8627,7 +8654,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8785,7 +8812,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -8943,7 +8970,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -9101,7 +9128,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -9259,7 +9286,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -9417,7 +9444,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -9575,7 +9602,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -9733,7 +9760,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -9891,7 +9918,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -10049,7 +10076,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -10207,7 +10234,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -10365,7 +10392,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -10523,7 +10550,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -10681,7 +10708,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -10839,7 +10866,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -10997,7 +11024,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -11155,7 +11182,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -11313,7 +11340,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -11471,7 +11498,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -11629,7 +11656,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -11787,7 +11814,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -11945,7 +11972,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -12120,28 +12147,28 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="43:50"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -12152,7 +12179,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -12163,7 +12190,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -12174,7 +12201,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -12185,7 +12212,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -12196,7 +12223,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -12207,7 +12234,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -12218,7 +12245,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -12229,7 +12256,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -12240,7 +12267,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -12251,7 +12278,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -12262,7 +12289,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -12273,7 +12300,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -12284,7 +12311,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -12295,7 +12322,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -12306,7 +12333,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -12317,7 +12344,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -12328,7 +12355,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -12339,7 +12366,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -12350,7 +12377,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -12361,7 +12388,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -12372,7 +12399,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -12383,7 +12410,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -12394,7 +12421,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -12405,7 +12432,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -12416,7 +12443,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -12427,7 +12454,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -12438,7 +12465,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -12449,7 +12476,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -12460,7 +12487,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -12471,7 +12498,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -12482,7 +12509,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -12493,7 +12520,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -12504,7 +12531,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -12515,7 +12542,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -12526,7 +12553,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -12537,7 +12564,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -12548,7 +12575,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -12559,7 +12586,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -12570,7 +12597,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -12581,7 +12608,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -12592,7 +12619,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -12603,7 +12630,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -12614,7 +12641,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -12626,7 +12653,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -12638,7 +12665,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -12650,7 +12677,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -12662,7 +12689,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -12674,7 +12701,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -12686,7 +12713,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -12698,7 +12725,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -12727,32 +12754,32 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="43:50 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -12760,10 +12787,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -12771,10 +12798,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -12782,10 +12809,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -12793,10 +12820,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -12804,10 +12831,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -12815,10 +12842,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -12826,10 +12853,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -12837,10 +12864,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -12848,10 +12875,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -12859,10 +12886,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -12870,10 +12897,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -12881,10 +12908,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -12892,10 +12919,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -12903,10 +12930,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -12914,10 +12941,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -12925,10 +12952,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -12936,10 +12963,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -12947,10 +12974,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -12958,10 +12985,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -12969,10 +12996,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -12980,10 +13007,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -12991,10 +13018,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -13002,10 +13029,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -13013,10 +13040,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -13024,10 +13051,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -13035,10 +13062,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -13046,10 +13073,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -13057,10 +13084,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -13068,10 +13095,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -13079,10 +13106,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -13090,10 +13117,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -13101,10 +13128,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -13112,10 +13139,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -13123,10 +13150,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -13134,10 +13161,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -13145,10 +13172,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -13156,10 +13183,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -13167,10 +13194,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -13178,10 +13205,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -13189,10 +13216,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -13200,10 +13227,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -13211,10 +13238,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -13222,7 +13249,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -13233,7 +13260,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -13244,7 +13271,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -13255,7 +13282,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -13266,7 +13293,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -13277,7 +13304,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -13288,7 +13315,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -13299,7 +13326,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -13327,35 +13354,35 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="43:50 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -13363,10 +13390,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -13374,10 +13401,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -13385,10 +13412,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -13396,10 +13423,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -13407,10 +13434,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -13418,10 +13445,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -13429,10 +13456,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -13440,10 +13467,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -13451,10 +13478,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -13462,10 +13489,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -13473,52 +13500,52 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -13526,10 +13553,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -13537,10 +13564,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -13548,10 +13575,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -13559,10 +13586,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -13570,10 +13597,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -13581,10 +13608,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -13592,10 +13619,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -13603,10 +13630,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -13614,10 +13641,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -13625,10 +13652,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -13636,10 +13663,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -13647,10 +13674,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -13658,10 +13685,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -13669,10 +13696,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -13680,10 +13707,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -13691,10 +13718,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -13702,10 +13729,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -13713,10 +13740,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -13724,10 +13751,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -13735,10 +13762,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -13746,10 +13773,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -13757,10 +13784,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -13768,10 +13795,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -13779,10 +13806,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -13790,10 +13817,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -13801,10 +13828,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -13812,7 +13839,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -13826,7 +13853,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -13840,7 +13867,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -13854,7 +13881,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -13868,7 +13895,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -13882,7 +13909,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -13896,7 +13923,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -13910,7 +13937,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -13941,272 +13968,272 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="43:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -14228,272 +14255,272 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="43:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -14515,28 +14542,28 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="43:50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -14547,7 +14574,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -14558,7 +14585,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -14569,7 +14596,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -14580,7 +14607,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -14591,7 +14618,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -14602,7 +14629,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -14613,7 +14640,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -14624,7 +14651,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -14635,7 +14662,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -14646,7 +14673,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -14657,7 +14684,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -14668,7 +14695,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -14679,7 +14706,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -14690,7 +14717,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -14701,7 +14728,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -14712,7 +14739,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -14723,7 +14750,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -14734,7 +14761,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -14745,7 +14772,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -14756,7 +14783,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -14767,7 +14794,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -14778,7 +14805,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -14789,7 +14816,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -14800,7 +14827,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -14811,7 +14838,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -14822,7 +14849,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -14833,7 +14860,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -14844,7 +14871,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -14855,7 +14882,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -14866,7 +14893,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -14877,7 +14904,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -14888,7 +14915,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -14899,7 +14926,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -14910,7 +14937,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -14921,7 +14948,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -14932,7 +14959,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -14943,7 +14970,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -14954,7 +14981,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -14965,7 +14992,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -14976,7 +15003,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -14987,7 +15014,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -14998,7 +15025,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -15009,7 +15036,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -15020,7 +15047,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -15031,7 +15058,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -15042,7 +15069,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -15053,7 +15080,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -15064,7 +15091,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -15092,29 +15119,29 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="43:50 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>6140</v>
@@ -15125,7 +15152,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -15136,7 +15163,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>630</v>
@@ -15147,7 +15174,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -15158,7 +15185,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4790</v>
@@ -15169,7 +15196,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -15180,7 +15207,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>720</v>
@@ -15191,7 +15218,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -15202,7 +15229,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>360</v>
@@ -15213,7 +15240,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5510</v>
@@ -15224,7 +15251,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>720</v>
@@ -15235,7 +15262,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>585</v>
@@ -15246,7 +15273,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -15257,7 +15284,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>292.5</v>
@@ -15268,7 +15295,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1170</v>
@@ -15279,7 +15306,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -15290,7 +15317,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>295</v>
@@ -15301,7 +15328,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>440</v>
@@ -15312,7 +15339,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -15323,7 +15350,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>150</v>
@@ -15334,7 +15361,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10</v>
@@ -15345,7 +15372,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>150</v>
@@ -15356,7 +15383,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6110</v>
@@ -15367,7 +15394,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6110</v>
@@ -15378,7 +15405,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>570</v>
@@ -15389,7 +15416,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>460</v>
@@ -15400,7 +15427,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>460</v>
@@ -15411,7 +15438,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>460</v>
@@ -15422,7 +15449,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>5110</v>
@@ -15433,7 +15460,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>5110</v>
@@ -15444,7 +15471,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4360</v>
@@ -15455,7 +15482,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>4360</v>
@@ -15466,7 +15493,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3890</v>
@@ -15477,7 +15504,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>700</v>
@@ -15488,7 +15515,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>700</v>
@@ -15499,7 +15526,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2230</v>
@@ -15510,7 +15537,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>5337.5</v>
@@ -15521,7 +15548,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>312.5</v>
@@ -15532,7 +15559,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>10000</v>
@@ -15543,7 +15570,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>470</v>
@@ -15554,7 +15581,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>700</v>
@@ -15565,7 +15592,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>30</v>
@@ -15576,7 +15603,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>20</v>
@@ -15587,7 +15614,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>290</v>
@@ -15598,7 +15625,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>10</v>
@@ -15609,7 +15636,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>90</v>
@@ -15620,7 +15647,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>140</v>
@@ -15631,7 +15658,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>50</v>
@@ -15642,7 +15669,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>750</v>
